--- a/bi_report_linux/billing/billing_total.xlsx
+++ b/bi_report_linux/billing/billing_total.xlsx
@@ -33,7 +33,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
-    <t>2024年1季度数字账单手续费</t>
+    <t>2024年2季度数字账单手续费</t>
   </si>
   <si>
     <t>序号</t>
@@ -45,7 +45,7 @@
     <t>项目名称</t>
   </si>
   <si>
-    <t>24年1季度实际费用</t>
+    <t>24年2季度实际费用</t>
   </si>
   <si>
     <t>时间维度</t>
@@ -1486,8 +1486,8 @@
   <sheetPr/>
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
